--- a/Оценки.xlsx
+++ b/Оценки.xlsx
@@ -255,7 +255,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -292,39 +292,43 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -9185,55 +9189,55 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="13.05"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="10" t="n">
+      <c r="I1" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="J1" s="10" t="n">
+      <c r="J1" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="K1" s="10" t="n">
+      <c r="K1" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="L1" s="10" t="n">
+      <c r="L1" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="M1" s="10" t="n">
+      <c r="M1" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="13" t="s">
         <v>29</v>
       </c>
     </row>
@@ -9256,32 +9260,32 @@
       <c r="F2" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" s="13" t="n">
+      <c r="G2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="K2" s="13" t="n">
+      <c r="K2" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="L2" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="14" t="n">
+      <c r="L2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="15" t="n">
         <v>1.5</v>
       </c>
-      <c r="N2" s="15" t="n">
+      <c r="N2" s="16" t="n">
         <f aca="false">SUM(B2:M2)</f>
         <v>12.5</v>
       </c>
-      <c r="O2" s="16" t="n">
+      <c r="O2" s="17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9300,32 +9304,32 @@
       <c r="F3" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="G3" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="13" t="n">
+      <c r="G3" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="K3" s="13" t="n">
+      <c r="K3" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="L3" s="13" t="n">
+      <c r="L3" s="14" t="n">
         <v>1.5</v>
       </c>
-      <c r="M3" s="14" t="n">
+      <c r="M3" s="15" t="n">
         <v>1.5</v>
       </c>
-      <c r="N3" s="15" t="n">
+      <c r="N3" s="16" t="n">
         <f aca="false">SUM(B3:M3)</f>
         <v>10</v>
       </c>
-      <c r="O3" s="16" t="n">
+      <c r="O3" s="17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9344,24 +9348,24 @@
       <c r="F4" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13" t="n">
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14" t="n">
         <v>0.5</v>
       </c>
-      <c r="J4" s="13" t="n">
+      <c r="J4" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="K4" s="13" t="n">
+      <c r="K4" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="15" t="n">
+      <c r="L4" s="14"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="16" t="n">
         <f aca="false">SUM(B4:M4)</f>
         <v>5.5</v>
       </c>
-      <c r="O4" s="16" t="n">
+      <c r="O4" s="17" t="n">
         <v>2</v>
       </c>
     </row>
@@ -9380,26 +9384,26 @@
       <c r="F5" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13" t="n">
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14" t="n">
         <v>0.5</v>
       </c>
-      <c r="J5" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="13" t="n">
+      <c r="J5" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="14" t="n">
         <v>1.5</v>
       </c>
-      <c r="L5" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="14"/>
-      <c r="N5" s="15" t="n">
+      <c r="L5" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="15"/>
+      <c r="N5" s="16" t="n">
         <f aca="false">SUM(B5:M5)</f>
         <v>5</v>
       </c>
-      <c r="O5" s="16" t="n">
+      <c r="O5" s="17" t="n">
         <v>2</v>
       </c>
     </row>
@@ -9422,26 +9426,26 @@
       <c r="F6" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13" t="n">
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14" t="n">
         <v>0.5</v>
       </c>
-      <c r="J6" s="13" t="n">
+      <c r="J6" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="K6" s="13" t="n">
+      <c r="K6" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="L6" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="14"/>
-      <c r="N6" s="15" t="n">
+      <c r="L6" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="15"/>
+      <c r="N6" s="16" t="n">
         <f aca="false">SUM(B6:M6)</f>
         <v>7</v>
       </c>
-      <c r="O6" s="16" t="n">
+      <c r="O6" s="17" t="n">
         <v>2</v>
       </c>
     </row>
@@ -9450,46 +9454,46 @@
         <v>8</v>
       </c>
       <c r="B7" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="14" t="n">
         <v>0.5</v>
       </c>
-      <c r="C7" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J7" s="13" t="n">
+      <c r="J7" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="K7" s="13" t="n">
+      <c r="K7" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="L7" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="15" t="n">
+      <c r="L7" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="16" t="n">
         <f aca="false">SUM(B7:M7)</f>
-        <v>11</v>
-      </c>
-      <c r="O7" s="16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="O7" s="17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9510,24 +9514,24 @@
       <c r="F8" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="G8" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13" t="n">
+      <c r="G8" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="L8" s="13"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="15" t="n">
+      <c r="L8" s="14"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="16" t="n">
         <f aca="false">SUM(B8:M8)</f>
         <v>7</v>
       </c>
-      <c r="O8" s="16" t="n">
+      <c r="O8" s="17" t="n">
         <v>2</v>
       </c>
     </row>
@@ -9546,26 +9550,26 @@
       <c r="F9" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13" t="n">
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14" t="n">
         <v>0.5</v>
       </c>
-      <c r="J9" s="13" t="n">
+      <c r="J9" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="K9" s="13" t="n">
+      <c r="K9" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="L9" s="13" t="n">
+      <c r="L9" s="14" t="n">
         <v>1.5</v>
       </c>
-      <c r="M9" s="14"/>
-      <c r="N9" s="15" t="n">
+      <c r="M9" s="15"/>
+      <c r="N9" s="16" t="n">
         <f aca="false">SUM(B9:M9)</f>
         <v>7</v>
       </c>
-      <c r="O9" s="16" t="n">
+      <c r="O9" s="17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9578,26 +9582,26 @@
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="13" t="n">
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="L10" s="13"/>
-      <c r="M10" s="14" t="n">
+      <c r="L10" s="14"/>
+      <c r="M10" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="N10" s="15" t="n">
+      <c r="N10" s="16" t="n">
         <f aca="false">SUM(B10:M10)</f>
         <v>6</v>
       </c>
-      <c r="O10" s="16" t="n">
+      <c r="O10" s="17" t="n">
         <v>2</v>
       </c>
     </row>
@@ -9606,40 +9610,40 @@
         <v>12</v>
       </c>
       <c r="B11" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="7" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="G11" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="13" t="n">
+      <c r="G11" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="L11" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="15" t="n">
+      <c r="L11" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="16" t="n">
         <f aca="false">SUM(B11:M11)</f>
-        <v>3.5</v>
-      </c>
-      <c r="O11" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="O11" s="17" t="n">
         <v>2</v>
       </c>
     </row>
@@ -9662,30 +9666,30 @@
       <c r="F12" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="G12" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" s="13" t="n">
+      <c r="G12" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="K12" s="13" t="n">
+      <c r="K12" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="L12" s="13" t="n">
+      <c r="L12" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="M12" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="15" t="n">
+      <c r="M12" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="16" t="n">
         <f aca="false">SUM(B12:M12)</f>
         <v>8</v>
       </c>
-      <c r="O12" s="16" t="n">
+      <c r="O12" s="17" t="n">
         <v>2</v>
       </c>
     </row>
@@ -9704,30 +9708,30 @@
       <c r="F13" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="G13" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="13" t="n">
+      <c r="G13" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="14" t="n">
         <v>0.5</v>
       </c>
-      <c r="J13" s="13" t="n">
+      <c r="J13" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="K13" s="13" t="n">
+      <c r="K13" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="L13" s="13"/>
-      <c r="M13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="15" t="n">
+      <c r="L13" s="14"/>
+      <c r="M13" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="16" t="n">
         <f aca="false">SUM(B13:M13)</f>
         <v>8</v>
       </c>
-      <c r="O13" s="16" t="n">
+      <c r="O13" s="17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9742,28 +9746,28 @@
       <c r="F14" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13" t="n">
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14" t="n">
         <v>0.5</v>
       </c>
-      <c r="J14" s="13" t="n">
+      <c r="J14" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="K14" s="13" t="n">
+      <c r="K14" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="L14" s="13" t="n">
+      <c r="L14" s="14" t="n">
         <v>0.5</v>
       </c>
-      <c r="M14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="15" t="n">
+      <c r="M14" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="16" t="n">
         <f aca="false">SUM(B14:M14)</f>
         <v>6</v>
       </c>
-      <c r="O14" s="16" t="n">
+      <c r="O14" s="17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9780,26 +9784,26 @@
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" s="13" t="n">
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="K15" s="13" t="n">
+      <c r="K15" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="L15" s="13" t="n">
+      <c r="L15" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="M15" s="14"/>
-      <c r="N15" s="15" t="n">
+      <c r="M15" s="15"/>
+      <c r="N15" s="16" t="n">
         <f aca="false">SUM(B15:M15)</f>
         <v>8.5</v>
       </c>
-      <c r="O15" s="16" t="n">
+      <c r="O15" s="17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9822,32 +9826,32 @@
       <c r="F16" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="G16" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="13" t="n">
+      <c r="G16" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="14" t="n">
         <v>0.5</v>
       </c>
-      <c r="J16" s="13" t="n">
+      <c r="J16" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="K16" s="13" t="n">
+      <c r="K16" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="L16" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="15" t="n">
+      <c r="L16" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="16" t="n">
         <f aca="false">SUM(B16:M16)</f>
         <v>11</v>
       </c>
-      <c r="O16" s="16" t="n">
+      <c r="O16" s="17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9862,28 +9866,28 @@
       <c r="F17" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="G17" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" s="13" t="n">
+      <c r="G17" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="K17" s="13" t="n">
+      <c r="K17" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="L17" s="13" t="n">
+      <c r="L17" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="M17" s="14"/>
-      <c r="N17" s="15" t="n">
+      <c r="M17" s="15"/>
+      <c r="N17" s="16" t="n">
         <f aca="false">SUM(B17:M17)</f>
         <v>7</v>
       </c>
-      <c r="O17" s="16" t="n">
+      <c r="O17" s="17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9906,28 +9910,28 @@
       <c r="F18" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="G18" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" s="13" t="n">
+      <c r="G18" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="14" t="n">
         <v>0.5</v>
       </c>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13" t="n">
+      <c r="I18" s="14"/>
+      <c r="J18" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="K18" s="13" t="n">
+      <c r="K18" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="L18" s="13" t="n">
+      <c r="L18" s="14" t="n">
         <v>1.5</v>
       </c>
-      <c r="M18" s="14"/>
-      <c r="N18" s="15" t="n">
+      <c r="M18" s="15"/>
+      <c r="N18" s="16" t="n">
         <f aca="false">SUM(B18:M18)</f>
         <v>11.5</v>
       </c>
-      <c r="O18" s="16" t="n">
+      <c r="O18" s="17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9946,28 +9950,28 @@
       <c r="F19" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="G19" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="13" t="n">
+      <c r="G19" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="14" t="n">
         <v>0.5</v>
       </c>
-      <c r="J19" s="13" t="n">
+      <c r="J19" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="K19" s="13" t="n">
+      <c r="K19" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="L19" s="13"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="15" t="n">
+      <c r="L19" s="14"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="16" t="n">
         <f aca="false">SUM(B19:M19)</f>
         <v>8.5</v>
       </c>
-      <c r="O19" s="16"/>
+      <c r="O19" s="17"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
@@ -9988,22 +9992,22 @@
       <c r="F20" s="7" t="n">
         <v>0.5</v>
       </c>
-      <c r="G20" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="15" t="n">
+      <c r="G20" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="16" t="n">
         <f aca="false">SUM(B20:M20)</f>
         <v>3.5</v>
       </c>
-      <c r="O20" s="16" t="n">
+      <c r="O20" s="17" t="n">
         <v>2</v>
       </c>
     </row>
@@ -10022,30 +10026,30 @@
       <c r="F21" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="G21" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="13" t="n">
+      <c r="G21" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="K21" s="13" t="n">
+      <c r="K21" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="L21" s="13"/>
-      <c r="M21" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="15" t="n">
+      <c r="L21" s="14"/>
+      <c r="M21" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" s="16" t="n">
         <f aca="false">SUM(B21:M21)</f>
         <v>8</v>
       </c>
-      <c r="O21" s="16" t="n">
+      <c r="O21" s="17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10062,28 +10066,28 @@
       <c r="F22" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" s="13" t="n">
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="K22" s="13" t="n">
+      <c r="K22" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="L22" s="13" t="n">
+      <c r="L22" s="14" t="n">
         <v>1.5</v>
       </c>
-      <c r="M22" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" s="15" t="n">
+      <c r="M22" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" s="16" t="n">
         <f aca="false">SUM(B22:M22)</f>
         <v>7.5</v>
       </c>
-      <c r="O22" s="16" t="n">
+      <c r="O22" s="17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10098,86 +10102,86 @@
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" s="13" t="n">
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="L23" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" s="14"/>
-      <c r="N23" s="15" t="n">
+      <c r="L23" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" s="15"/>
+      <c r="N23" s="16" t="n">
         <f aca="false">SUM(B23:M23)</f>
         <v>5</v>
       </c>
-      <c r="O23" s="16" t="n">
+      <c r="O23" s="17" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="17"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="18"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" s="0" t="n">
+      <c r="B25" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="K25" s="0" t="n">
+      <c r="K25" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="L25" s="0" t="n">
+      <c r="L25" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="M25" s="0" t="n">
+      <c r="M25" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="N25" s="13" t="n">
+      <c r="N25" s="14" t="n">
         <f aca="false">SUM(B25:M25)</f>
         <v>16</v>
       </c>

--- a/Оценки.xlsx
+++ b/Оценки.xlsx
@@ -10,6 +10,7 @@
   <sheets>
     <sheet name="Тесты" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="Контрольная" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Домашнее 1" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="52">
   <si>
     <t xml:space="preserve">Тест 1</t>
   </si>
@@ -123,6 +124,60 @@
   </si>
   <si>
     <t xml:space="preserve">Максимум</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12f</t>
   </si>
 </sst>
 </file>
@@ -255,7 +310,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -329,6 +384,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -9189,7 +9248,7 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+      <selection pane="topLeft" activeCell="L8" activeCellId="0" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9484,14 +9543,14 @@
         <v>2</v>
       </c>
       <c r="L7" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="15" t="n">
         <v>0</v>
       </c>
       <c r="N7" s="16" t="n">
         <f aca="false">SUM(B7:M7)</f>
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="O7" s="17" t="n">
         <v>1</v>
@@ -10195,4 +10254,315 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AC25"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="13.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="2" style="14" width="5.06"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="29" min="29" style="14" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="S1" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="T1" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC1" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="H25" s="14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I25" s="14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J25" s="14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K25" s="14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L25" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="O25" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="P25" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="S25" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="T25" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="U25" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="W25" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="X25" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Оценки.xlsx
+++ b/Оценки.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Тесты" sheetId="1" state="visible" r:id="rId3"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="52">
   <si>
     <t xml:space="preserve">Тест 1</t>
   </si>
@@ -90,6 +90,9 @@
     <t xml:space="preserve">Ядров</t>
   </si>
   <si>
+    <t xml:space="preserve">Максимум</t>
+  </si>
+  <si>
     <t xml:space="preserve">1a</t>
   </si>
   <si>
@@ -121,9 +124,6 @@
   </si>
   <si>
     <t xml:space="preserve">Ширяев</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Максимум</t>
   </si>
   <si>
     <t xml:space="preserve">1c</t>
@@ -188,7 +188,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -218,6 +218,13 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -227,7 +234,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -253,6 +260,20 @@
       <left/>
       <right style="thin"/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
@@ -284,6 +305,13 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -310,7 +338,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -347,15 +375,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -367,7 +407,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -383,11 +427,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -583,7 +643,7 @@
   <dimension ref="A1:M1001"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J27" activeCellId="0" sqref="J27"/>
+      <selection pane="topLeft" activeCell="I25" activeCellId="1" sqref="B12:AB20 I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1393,13 +1453,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G22" s="8"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="8"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="12" t="n">
+        <f aca="false">SUM(B23:F23)</f>
+        <v>5</v>
+      </c>
+      <c r="H23" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" s="12" t="n">
+        <f aca="false">SUM(H23:L23)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="7"/>
@@ -1408,6 +1512,12 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="7"/>
@@ -1416,6 +1526,12 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="7"/>
@@ -1424,6 +1540,12 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="7"/>
@@ -1432,6 +1554,12 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="7"/>
@@ -1440,6 +1568,12 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="7"/>
@@ -1448,6 +1582,12 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="7"/>
@@ -1456,6 +1596,12 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="7"/>
@@ -1464,6 +1610,12 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="7"/>
@@ -1472,6 +1624,12 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="7"/>
@@ -1480,6 +1638,12 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="7"/>
@@ -1488,6 +1652,12 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="7"/>
@@ -1496,6 +1666,12 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="7"/>
@@ -1504,6 +1680,12 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="7"/>
@@ -1512,6 +1694,12 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="7"/>
@@ -1520,6 +1708,12 @@
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="7"/>
@@ -1528,6 +1722,12 @@
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="7"/>
@@ -9247,57 +9447,57 @@
   </sheetPr>
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L8" activeCellId="0" sqref="L8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="B12:AB20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="13.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="14" width="13.05"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="C1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="D1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="E1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="F1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="G1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="11" t="n">
+      <c r="H1" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="J1" s="11" t="n">
+      <c r="J1" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="K1" s="11" t="n">
+      <c r="K1" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="L1" s="11" t="n">
+      <c r="L1" s="16" t="n">
         <v>7</v>
       </c>
-      <c r="M1" s="11" t="n">
+      <c r="M1" s="16" t="n">
         <v>8</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="13" t="s">
-        <v>29</v>
+      <c r="O1" s="18" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9319,32 +9519,32 @@
       <c r="F2" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" s="14" t="n">
+      <c r="G2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="K2" s="14" t="n">
+      <c r="K2" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="L2" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="15" t="n">
+      <c r="L2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="19" t="n">
         <v>1.5</v>
       </c>
-      <c r="N2" s="16" t="n">
+      <c r="N2" s="20" t="n">
         <f aca="false">SUM(B2:M2)</f>
         <v>12.5</v>
       </c>
-      <c r="O2" s="17" t="n">
+      <c r="O2" s="21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9363,32 +9563,32 @@
       <c r="F3" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="G3" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="14" t="n">
+      <c r="G3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="K3" s="14" t="n">
+      <c r="K3" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="L3" s="14" t="n">
+      <c r="L3" s="9" t="n">
         <v>1.5</v>
       </c>
-      <c r="M3" s="15" t="n">
+      <c r="M3" s="19" t="n">
         <v>1.5</v>
       </c>
-      <c r="N3" s="16" t="n">
+      <c r="N3" s="20" t="n">
         <f aca="false">SUM(B3:M3)</f>
         <v>10</v>
       </c>
-      <c r="O3" s="17" t="n">
+      <c r="O3" s="21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9407,24 +9607,24 @@
       <c r="F4" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14" t="n">
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9" t="n">
         <v>0.5</v>
       </c>
-      <c r="J4" s="14" t="n">
+      <c r="J4" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="K4" s="14" t="n">
+      <c r="K4" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="L4" s="14"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="16" t="n">
+      <c r="L4" s="9"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="20" t="n">
         <f aca="false">SUM(B4:M4)</f>
         <v>5.5</v>
       </c>
-      <c r="O4" s="17" t="n">
+      <c r="O4" s="21" t="n">
         <v>2</v>
       </c>
     </row>
@@ -9443,26 +9643,26 @@
       <c r="F5" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14" t="n">
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9" t="n">
         <v>0.5</v>
       </c>
-      <c r="J5" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="14" t="n">
+      <c r="J5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="9" t="n">
         <v>1.5</v>
       </c>
-      <c r="L5" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="15"/>
-      <c r="N5" s="16" t="n">
+      <c r="L5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="19"/>
+      <c r="N5" s="20" t="n">
         <f aca="false">SUM(B5:M5)</f>
         <v>5</v>
       </c>
-      <c r="O5" s="17" t="n">
+      <c r="O5" s="21" t="n">
         <v>2</v>
       </c>
     </row>
@@ -9485,26 +9685,26 @@
       <c r="F6" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14" t="n">
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9" t="n">
         <v>0.5</v>
       </c>
-      <c r="J6" s="14" t="n">
+      <c r="J6" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="K6" s="14" t="n">
+      <c r="K6" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="L6" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="15"/>
-      <c r="N6" s="16" t="n">
+      <c r="L6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="19"/>
+      <c r="N6" s="20" t="n">
         <f aca="false">SUM(B6:M6)</f>
         <v>7</v>
       </c>
-      <c r="O6" s="17" t="n">
+      <c r="O6" s="21" t="n">
         <v>2</v>
       </c>
     </row>
@@ -9527,32 +9727,32 @@
       <c r="F7" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="G7" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="14" t="n">
+      <c r="G7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="9" t="n">
         <v>0.5</v>
       </c>
-      <c r="J7" s="14" t="n">
+      <c r="J7" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="K7" s="14" t="n">
+      <c r="K7" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="L7" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="16" t="n">
+      <c r="L7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="20" t="n">
         <f aca="false">SUM(B7:M7)</f>
         <v>12.5</v>
       </c>
-      <c r="O7" s="17" t="n">
+      <c r="O7" s="21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9573,24 +9773,24 @@
       <c r="F8" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="G8" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14" t="n">
+      <c r="G8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="L8" s="14"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="16" t="n">
+      <c r="L8" s="9"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="20" t="n">
         <f aca="false">SUM(B8:M8)</f>
         <v>7</v>
       </c>
-      <c r="O8" s="17" t="n">
+      <c r="O8" s="21" t="n">
         <v>2</v>
       </c>
     </row>
@@ -9609,26 +9809,26 @@
       <c r="F9" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14" t="n">
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9" t="n">
         <v>0.5</v>
       </c>
-      <c r="J9" s="14" t="n">
+      <c r="J9" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="K9" s="14" t="n">
+      <c r="K9" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="L9" s="14" t="n">
+      <c r="L9" s="9" t="n">
         <v>1.5</v>
       </c>
-      <c r="M9" s="15"/>
-      <c r="N9" s="16" t="n">
+      <c r="M9" s="19"/>
+      <c r="N9" s="20" t="n">
         <f aca="false">SUM(B9:M9)</f>
         <v>7</v>
       </c>
-      <c r="O9" s="17" t="n">
+      <c r="O9" s="21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9641,26 +9841,26 @@
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="14" t="n">
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="L10" s="14"/>
-      <c r="M10" s="15" t="n">
+      <c r="L10" s="9"/>
+      <c r="M10" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="N10" s="16" t="n">
+      <c r="N10" s="20" t="n">
         <f aca="false">SUM(B10:M10)</f>
         <v>6</v>
       </c>
-      <c r="O10" s="17" t="n">
+      <c r="O10" s="21" t="n">
         <v>2</v>
       </c>
     </row>
@@ -9679,36 +9879,36 @@
       <c r="F11" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="G11" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="14" t="n">
+      <c r="G11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="L11" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="16" t="n">
+      <c r="L11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="20" t="n">
         <f aca="false">SUM(B11:M11)</f>
         <v>5</v>
       </c>
-      <c r="O11" s="17" t="n">
+      <c r="O11" s="21" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" s="6" t="n">
         <v>1</v>
@@ -9725,30 +9925,30 @@
       <c r="F12" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="G12" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" s="14" t="n">
+      <c r="G12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="K12" s="14" t="n">
+      <c r="K12" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="L12" s="14" t="n">
+      <c r="L12" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="M12" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="16" t="n">
+      <c r="M12" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="20" t="n">
         <f aca="false">SUM(B12:M12)</f>
         <v>8</v>
       </c>
-      <c r="O12" s="17" t="n">
+      <c r="O12" s="21" t="n">
         <v>2</v>
       </c>
     </row>
@@ -9767,30 +9967,30 @@
       <c r="F13" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="G13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="14" t="n">
+      <c r="G13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="9" t="n">
         <v>0.5</v>
       </c>
-      <c r="J13" s="14" t="n">
+      <c r="J13" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="K13" s="14" t="n">
+      <c r="K13" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="L13" s="14"/>
-      <c r="M13" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="16" t="n">
+      <c r="L13" s="9"/>
+      <c r="M13" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="20" t="n">
         <f aca="false">SUM(B13:M13)</f>
         <v>8</v>
       </c>
-      <c r="O13" s="17" t="n">
+      <c r="O13" s="21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9805,34 +10005,34 @@
       <c r="F14" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14" t="n">
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9" t="n">
         <v>0.5</v>
       </c>
-      <c r="J14" s="14" t="n">
+      <c r="J14" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="K14" s="14" t="n">
+      <c r="K14" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="L14" s="14" t="n">
+      <c r="L14" s="9" t="n">
         <v>0.5</v>
       </c>
-      <c r="M14" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="16" t="n">
+      <c r="M14" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="20" t="n">
         <f aca="false">SUM(B14:M14)</f>
         <v>6</v>
       </c>
-      <c r="O14" s="17" t="n">
+      <c r="O14" s="21" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" s="6" t="n">
         <v>0.5</v>
@@ -9843,26 +10043,26 @@
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" s="14" t="n">
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="K15" s="14" t="n">
+      <c r="K15" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="L15" s="14" t="n">
+      <c r="L15" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="M15" s="15"/>
-      <c r="N15" s="16" t="n">
+      <c r="M15" s="19"/>
+      <c r="N15" s="20" t="n">
         <f aca="false">SUM(B15:M15)</f>
         <v>8.5</v>
       </c>
-      <c r="O15" s="17" t="n">
+      <c r="O15" s="21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9885,32 +10085,32 @@
       <c r="F16" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="G16" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="14" t="n">
+      <c r="G16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="9" t="n">
         <v>0.5</v>
       </c>
-      <c r="J16" s="14" t="n">
+      <c r="J16" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="K16" s="14" t="n">
+      <c r="K16" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="L16" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="16" t="n">
+      <c r="L16" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="20" t="n">
         <f aca="false">SUM(B16:M16)</f>
         <v>11</v>
       </c>
-      <c r="O16" s="17" t="n">
+      <c r="O16" s="21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9925,28 +10125,28 @@
       <c r="F17" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="G17" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" s="14" t="n">
+      <c r="G17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="K17" s="14" t="n">
+      <c r="K17" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="L17" s="14" t="n">
+      <c r="L17" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="M17" s="15"/>
-      <c r="N17" s="16" t="n">
+      <c r="M17" s="19"/>
+      <c r="N17" s="20" t="n">
         <f aca="false">SUM(B17:M17)</f>
         <v>7</v>
       </c>
-      <c r="O17" s="17" t="n">
+      <c r="O17" s="21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9969,28 +10169,28 @@
       <c r="F18" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="G18" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" s="14" t="n">
+      <c r="G18" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="9" t="n">
         <v>0.5</v>
       </c>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14" t="n">
+      <c r="I18" s="9"/>
+      <c r="J18" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="K18" s="14" t="n">
+      <c r="K18" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="L18" s="14" t="n">
+      <c r="L18" s="9" t="n">
         <v>1.5</v>
       </c>
-      <c r="M18" s="15"/>
-      <c r="N18" s="16" t="n">
+      <c r="M18" s="19"/>
+      <c r="N18" s="20" t="n">
         <f aca="false">SUM(B18:M18)</f>
         <v>11.5</v>
       </c>
-      <c r="O18" s="17" t="n">
+      <c r="O18" s="21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10009,28 +10209,28 @@
       <c r="F19" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="G19" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="14" t="n">
+      <c r="G19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="9" t="n">
         <v>0.5</v>
       </c>
-      <c r="J19" s="14" t="n">
+      <c r="J19" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="K19" s="14" t="n">
+      <c r="K19" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="L19" s="14"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="16" t="n">
+      <c r="L19" s="9"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="20" t="n">
         <f aca="false">SUM(B19:M19)</f>
         <v>8.5</v>
       </c>
-      <c r="O19" s="17"/>
+      <c r="O19" s="21"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
@@ -10051,28 +10251,34 @@
       <c r="F20" s="7" t="n">
         <v>0.5</v>
       </c>
-      <c r="G20" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="16" t="n">
+      <c r="G20" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="L20" s="9"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="20" t="n">
         <f aca="false">SUM(B20:M20)</f>
-        <v>3.5</v>
-      </c>
-      <c r="O20" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="O20" s="21" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
@@ -10085,30 +10291,30 @@
       <c r="F21" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="G21" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="14" t="n">
+      <c r="G21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="K21" s="14" t="n">
+      <c r="K21" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="L21" s="14"/>
-      <c r="M21" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="16" t="n">
+      <c r="L21" s="9"/>
+      <c r="M21" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" s="20" t="n">
         <f aca="false">SUM(B21:M21)</f>
         <v>8</v>
       </c>
-      <c r="O21" s="17" t="n">
+      <c r="O21" s="21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10125,28 +10331,28 @@
       <c r="F22" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" s="14" t="n">
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="K22" s="14" t="n">
+      <c r="K22" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="L22" s="14" t="n">
+      <c r="L22" s="9" t="n">
         <v>1.5</v>
       </c>
-      <c r="M22" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" s="16" t="n">
+      <c r="M22" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" s="20" t="n">
         <f aca="false">SUM(B22:M22)</f>
         <v>7.5</v>
       </c>
-      <c r="O22" s="17" t="n">
+      <c r="O22" s="21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10161,86 +10367,86 @@
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" s="14" t="n">
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="L23" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" s="15"/>
-      <c r="N23" s="16" t="n">
+      <c r="L23" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" s="19"/>
+      <c r="N23" s="20" t="n">
         <f aca="false">SUM(B23:M23)</f>
         <v>5</v>
       </c>
-      <c r="O23" s="17" t="n">
+      <c r="O23" s="21" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="18"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="22"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H25" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" s="9" t="n">
+      <c r="A25" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="K25" s="9" t="n">
+      <c r="K25" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="L25" s="9" t="n">
+      <c r="L25" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="M25" s="9" t="n">
+      <c r="M25" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="N25" s="14" t="n">
+      <c r="N25" s="9" t="n">
         <f aca="false">SUM(B25:M25)</f>
         <v>16</v>
       </c>
@@ -10263,100 +10469,100 @@
   </sheetPr>
   <dimension ref="A1:AC25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12:AB20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="13.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="2" style="14" width="5.06"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="29" min="29" style="14" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="14" width="13.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="2" style="9" width="5.06"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="29" min="29" style="9" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="9" t="s">
+    <row r="1" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="C1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="9" t="n">
+      <c r="E1" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="9" t="s">
+      <c r="F1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="G1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="9" t="n">
+      <c r="O1" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="R1" s="9" t="n">
+      <c r="R1" s="14" t="n">
         <v>8</v>
       </c>
-      <c r="S1" s="9" t="n">
+      <c r="S1" s="14" t="n">
         <v>9</v>
       </c>
-      <c r="T1" s="9" t="n">
+      <c r="T1" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="U1" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="V1" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="W1" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="X1" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="Y1" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="Z1" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AA1" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AB1" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="AC1" s="9" t="s">
+      <c r="AC1" s="23" t="s">
         <v>2</v>
       </c>
     </row>
@@ -10364,196 +10570,341 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="25" t="n">
+        <f aca="false">SUM(B2:AB2)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B3" s="25"/>
+      <c r="AC3" s="25" t="n">
+        <f aca="false">SUM(B3:AB3)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B4" s="25"/>
+      <c r="AC4" s="25" t="n">
+        <f aca="false">SUM(B4:AB4)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B5" s="25"/>
+      <c r="AC5" s="25" t="n">
+        <f aca="false">SUM(B5:AB5)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B6" s="25"/>
+      <c r="AC6" s="25" t="n">
+        <f aca="false">SUM(B6:AB6)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B7" s="25"/>
+      <c r="AC7" s="25" t="n">
+        <f aca="false">SUM(B7:AB7)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B8" s="25"/>
+      <c r="AC8" s="25" t="n">
+        <f aca="false">SUM(B8:AB8)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B9" s="25"/>
+      <c r="AC9" s="25" t="n">
+        <f aca="false">SUM(B9:AB9)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B10" s="25"/>
+      <c r="AC10" s="25" t="n">
+        <f aca="false">SUM(B10:AB10)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B11" s="25"/>
+      <c r="AC11" s="25" t="n">
+        <f aca="false">SUM(B11:AB11)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="AC12" s="25" t="n">
+        <f aca="false">SUM(B12:AB12)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B13" s="25"/>
+      <c r="AC13" s="25" t="n">
+        <f aca="false">SUM(B13:AB13)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B14" s="25"/>
+      <c r="AC14" s="25" t="n">
+        <f aca="false">SUM(B14:AB14)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="B15" s="25"/>
+      <c r="AC15" s="25" t="n">
+        <f aca="false">SUM(B15:AB15)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B16" s="25"/>
+      <c r="AC16" s="25" t="n">
+        <f aca="false">SUM(B16:AB16)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B17" s="25"/>
+      <c r="AC17" s="25" t="n">
+        <f aca="false">SUM(B17:AB17)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B18" s="25"/>
+      <c r="AC18" s="25" t="n">
+        <f aca="false">SUM(B18:AB18)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="B19" s="25"/>
+      <c r="AC19" s="25" t="n">
+        <f aca="false">SUM(B19:AB19)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B20" s="25"/>
+      <c r="AC20" s="25" t="n">
+        <f aca="false">SUM(B20:AB20)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="B21" s="25"/>
+      <c r="AC21" s="25" t="n">
+        <f aca="false">SUM(B21:AB21)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="B22" s="25"/>
+      <c r="AC22" s="25" t="n">
+        <f aca="false">SUM(B22:AB22)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="B23" s="25"/>
+      <c r="AC23" s="25" t="n">
+        <f aca="false">SUM(B23:AB23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC24" s="25"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="14" t="n">
+      <c r="A25" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="F25" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" s="14" t="n">
+      <c r="F25" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="H25" s="14" t="n">
+      <c r="H25" s="13" t="n">
         <v>0.5</v>
       </c>
-      <c r="I25" s="14" t="n">
+      <c r="I25" s="13" t="n">
         <v>0.5</v>
       </c>
-      <c r="J25" s="14" t="n">
+      <c r="J25" s="13" t="n">
         <v>0.5</v>
       </c>
-      <c r="K25" s="14" t="n">
+      <c r="K25" s="13" t="n">
         <v>0.5</v>
       </c>
-      <c r="L25" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="O25" s="14" t="n">
+      <c r="L25" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="O25" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="P25" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="14" t="n">
+      <c r="P25" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="R25" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="S25" s="14" t="n">
+      <c r="R25" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="S25" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="T25" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="U25" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="V25" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="W25" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="X25" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y25" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z25" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA25" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB25" s="14" t="n">
-        <v>1</v>
+      <c r="T25" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="U25" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="W25" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="X25" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="25" t="n">
+        <f aca="false">SUM(B25:AB25)</f>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Оценки.xlsx
+++ b/Оценки.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Тесты" sheetId="1" state="visible" r:id="rId3"/>
@@ -338,7 +338,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -440,6 +440,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -642,8 +646,8 @@
   </sheetPr>
   <dimension ref="A1:M1001"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I25" activeCellId="1" sqref="B12:AB20 I25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9448,7 +9452,7 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="B12:AB20"/>
+      <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10469,8 +10473,8 @@
   </sheetPr>
   <dimension ref="A1:AC25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12:AB20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L22" activeCellId="0" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10570,258 +10574,1656 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
+      <c r="B2" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I2" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J2" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K2" s="13" t="n">
+        <v>0.5</v>
+      </c>
       <c r="L2" s="13"/>
       <c r="M2" s="13"/>
       <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
+      <c r="O2" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="P2" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R2" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="T2" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="U2" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X2" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="13" t="n">
+        <v>0</v>
+      </c>
       <c r="AA2" s="13"/>
       <c r="AB2" s="13"/>
       <c r="AC2" s="25" t="n">
         <f aca="false">SUM(B2:AB2)</f>
-        <v>0</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="25"/>
+      <c r="B3" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="P3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="W3" s="9" t="n">
+        <v>0.75</v>
+      </c>
       <c r="AC3" s="25" t="n">
         <f aca="false">SUM(B3:AB3)</f>
-        <v>0</v>
+        <v>12.75</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="25"/>
+      <c r="B4" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H4" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I4" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J4" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K4" s="9" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L4" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" s="9" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="S4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="U4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="AC4" s="25" t="n">
         <f aca="false">SUM(B4:AB4)</f>
-        <v>0</v>
+        <v>23.25</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="25"/>
+      <c r="B5" s="25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="9" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="S5" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="T5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="W5" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="AC5" s="25" t="n">
         <f aca="false">SUM(B5:AB5)</f>
-        <v>0</v>
+        <v>17.75</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="25"/>
+      <c r="B6" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="T6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="AC6" s="25" t="n">
         <f aca="false">SUM(B6:AB6)</f>
-        <v>0</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="25"/>
+      <c r="B7" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" s="9" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I7" s="9" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S7" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="T7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="AC7" s="25" t="n">
         <f aca="false">SUM(B7:AB7)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="25"/>
+      <c r="B8" s="25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H8" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J8" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K8" s="9" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="T8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="U8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="W8" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Z8" s="9" t="n">
+        <v>0.5</v>
+      </c>
       <c r="AC8" s="25" t="n">
         <f aca="false">SUM(B8:AB8)</f>
-        <v>0</v>
+        <v>26.75</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="25"/>
+      <c r="B9" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J9" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K9" s="9" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="O9" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="T9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="U9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X9" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="AC9" s="25" t="n">
         <f aca="false">SUM(B9:AB9)</f>
-        <v>0</v>
+        <v>21.25</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="25"/>
+      <c r="B10" s="25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H10" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I10" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="U10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="AC10" s="25" t="n">
         <f aca="false">SUM(B10:AB10)</f>
-        <v>0</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="25"/>
+      <c r="B11" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H11" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I11" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J11" s="9" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" s="9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="U11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="W11" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="AC11" s="25" t="n">
         <f aca="false">SUM(B11:AB11)</f>
-        <v>0</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
+      <c r="B12" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H12" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I12" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J12" s="9" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K12" s="9" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N12" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="U12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="9" t="n">
+        <v>0.75</v>
+      </c>
       <c r="AC12" s="25" t="n">
         <f aca="false">SUM(B12:AB12)</f>
-        <v>0</v>
+        <v>21.25</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="25"/>
+      <c r="B13" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N13" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P13" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="U13" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X13" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="AC13" s="25" t="n">
         <f aca="false">SUM(B13:AB13)</f>
-        <v>0</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="25"/>
+      <c r="B14" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H14" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I14" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J14" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K14" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L14" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P14" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="T14" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="U14" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="W14" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X14" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="AC14" s="25" t="n">
         <f aca="false">SUM(B14:AB14)</f>
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="25"/>
+      <c r="B15" s="25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H15" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I15" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J15" s="9" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="O15" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P15" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="U15" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="W15" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="AC15" s="25" t="n">
         <f aca="false">SUM(B15:AB15)</f>
-        <v>0</v>
+        <v>16.75</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="25"/>
+      <c r="B16" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H16" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I16" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J16" s="9" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K16" s="9" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="O16" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P16" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="T16" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="U16" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="W16" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X16" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="AC16" s="25" t="n">
         <f aca="false">SUM(B16:AB16)</f>
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="25"/>
+      <c r="B17" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D17" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H17" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I17" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J17" s="9" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L17" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R17" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="T17" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="U17" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="W17" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X17" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="AC17" s="25" t="n">
         <f aca="false">SUM(B17:AB17)</f>
-        <v>0</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="25"/>
+      <c r="B18" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I18" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P18" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R18" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="T18" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="U18" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X18" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="AC18" s="25" t="n">
         <f aca="false">SUM(B18:AB18)</f>
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="25"/>
+      <c r="B19" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="9" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I19" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="O19" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P19" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="T19" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="U19" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="W19" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X19" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="AC19" s="25" t="n">
         <f aca="false">SUM(B19:AB19)</f>
-        <v>0</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="25"/>
+      <c r="B20" s="25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C20" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I20" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L20" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M20" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P20" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="U20" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="W20" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X20" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="AC20" s="25" t="n">
         <f aca="false">SUM(B20:AB20)</f>
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="25"/>
+      <c r="B21" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="O21" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P21" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R21" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="T21" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="U21" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X21" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="AC21" s="25" t="n">
         <f aca="false">SUM(B21:AB21)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="25"/>
+      <c r="B22" s="25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C22" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I22" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" s="9" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P22" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S22" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="T22" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="U22" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="W22" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X22" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Z22" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="AC22" s="25" t="n">
         <f aca="false">SUM(B22:AB22)</f>
-        <v>0</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="25"/>
+      <c r="B23" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I23" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P23" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="U23" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X23" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="AC23" s="25" t="n">
         <f aca="false">SUM(B23:AB23)</f>
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AC24" s="25"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="27" t="n">
+      <c r="B25" s="28" t="n">
         <v>1</v>
       </c>
       <c r="C25" s="13" t="n">

--- a/Оценки.xlsx
+++ b/Оценки.xlsx
@@ -811,7 +811,7 @@
   <dimension ref="A1:N1004"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O13" activeCellId="0" sqref="O13"/>
+      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10913,7 +10913,7 @@
   <dimension ref="A1:AD25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AC1" activeCellId="0" sqref="AC1"/>
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12864,11 +12864,12 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N23" activeCellId="0" sqref="N23"/>
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="2" style="1" width="5.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="7.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="13.9"/>
@@ -12914,19 +12915,32 @@
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="18"/>
+      <c r="B2" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="18" t="n">
+        <v>0</v>
+      </c>
       <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="E2" s="18" t="n">
+        <v>1</v>
+      </c>
       <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="G2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18" t="n">
+        <v>1</v>
+      </c>
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="8" t="n">
-        <f aca="false">1.5*K2/30</f>
-        <v>0</v>
+      <c r="K2" s="23" t="n">
+        <f aca="false">SUM(B2:J2)</f>
+        <v>2</v>
+      </c>
+      <c r="L2" s="12" t="n">
+        <f aca="false">0.5*K2/9</f>
+        <v>0.111111111111111</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12938,33 +12952,63 @@
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
+      <c r="G3" s="13" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H3" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="13" t="n">
+        <v>1</v>
+      </c>
       <c r="J3" s="13"/>
-      <c r="K3" s="23"/>
+      <c r="K3" s="23" t="n">
+        <f aca="false">SUM(B3:J3)</f>
+        <v>2.75</v>
+      </c>
       <c r="L3" s="12" t="n">
-        <f aca="false">1.5*K3/30</f>
-        <v>0</v>
+        <f aca="false">0.5*K3/9</f>
+        <v>0.152777777777778</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="23"/>
+      <c r="B4" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="23" t="n">
+        <f aca="false">SUM(B4:J4)</f>
+        <v>5.5</v>
+      </c>
       <c r="L4" s="12" t="n">
-        <f aca="false">1.5*K4/30</f>
-        <v>0</v>
+        <f aca="false">0.5*K4/9</f>
+        <v>0.305555555555556</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12980,9 +13024,12 @@
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
-      <c r="K5" s="23"/>
+      <c r="K5" s="23" t="n">
+        <f aca="false">SUM(B5:J5)</f>
+        <v>0</v>
+      </c>
       <c r="L5" s="12" t="n">
-        <f aca="false">1.5*K5/30</f>
+        <f aca="false">0.5*K5/9</f>
         <v>0</v>
       </c>
     </row>
@@ -12999,9 +13046,12 @@
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
-      <c r="K6" s="23"/>
+      <c r="K6" s="23" t="n">
+        <f aca="false">SUM(B6:J6)</f>
+        <v>0</v>
+      </c>
       <c r="L6" s="12" t="n">
-        <f aca="false">1.5*K6/30</f>
+        <f aca="false">0.5*K6/9</f>
         <v>0</v>
       </c>
     </row>
@@ -13018,9 +13068,12 @@
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
-      <c r="K7" s="23"/>
+      <c r="K7" s="23" t="n">
+        <f aca="false">SUM(B7:J7)</f>
+        <v>0</v>
+      </c>
       <c r="L7" s="12" t="n">
-        <f aca="false">1.5*K7/30</f>
+        <f aca="false">0.5*K7/9</f>
         <v>0</v>
       </c>
     </row>
@@ -13028,19 +13081,40 @@
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="23"/>
+      <c r="B8" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="23" t="n">
+        <f aca="false">SUM(B8:J8)</f>
+        <v>7.5</v>
+      </c>
       <c r="L8" s="12" t="n">
-        <f aca="false">1.5*K8/30</f>
-        <v>0</v>
+        <f aca="false">0.5*K8/9</f>
+        <v>0.416666666666667</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13048,18 +13122,37 @@
         <v>11</v>
       </c>
       <c r="B9" s="31"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="23"/>
+      <c r="C9" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="13" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E9" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="23" t="n">
+        <f aca="false">SUM(B9:J9)</f>
+        <v>6.25</v>
+      </c>
       <c r="L9" s="12" t="n">
-        <f aca="false">1.5*K9/30</f>
-        <v>0</v>
+        <f aca="false">0.5*K9/9</f>
+        <v>0.347222222222222</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13067,37 +13160,71 @@
         <v>12</v>
       </c>
       <c r="B10" s="31"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="C10" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="13" t="n">
+        <v>0.5</v>
+      </c>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="23"/>
+      <c r="J10" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="23" t="n">
+        <f aca="false">SUM(B10:J10)</f>
+        <v>5.5</v>
+      </c>
       <c r="L10" s="12" t="n">
-        <f aca="false">1.5*K10/30</f>
-        <v>0</v>
+        <f aca="false">0.5*K10/9</f>
+        <v>0.305555555555556</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
+      <c r="B11" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="13" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E11" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="13" t="n">
+        <v>0.5</v>
+      </c>
       <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="23"/>
+      <c r="H11" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="23" t="n">
+        <f aca="false">SUM(B11:J11)</f>
+        <v>6.25</v>
+      </c>
       <c r="L11" s="12" t="n">
-        <f aca="false">1.5*K11/30</f>
-        <v>0</v>
+        <f aca="false">0.5*K11/9</f>
+        <v>0.347222222222222</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13113,9 +13240,12 @@
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
-      <c r="K12" s="23"/>
+      <c r="K12" s="23" t="n">
+        <f aca="false">SUM(B12:J12)</f>
+        <v>0</v>
+      </c>
       <c r="L12" s="12" t="n">
-        <f aca="false">1.5*K12/30</f>
+        <f aca="false">0.5*K12/9</f>
         <v>0</v>
       </c>
     </row>
@@ -13132,9 +13262,12 @@
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
-      <c r="K13" s="23"/>
+      <c r="K13" s="23" t="n">
+        <f aca="false">SUM(B13:J13)</f>
+        <v>0</v>
+      </c>
       <c r="L13" s="12" t="n">
-        <f aca="false">1.5*K13/30</f>
+        <f aca="false">0.5*K13/9</f>
         <v>0</v>
       </c>
     </row>
@@ -13151,9 +13284,12 @@
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
-      <c r="K14" s="23"/>
+      <c r="K14" s="23" t="n">
+        <f aca="false">SUM(B14:J14)</f>
+        <v>0</v>
+      </c>
       <c r="L14" s="12" t="n">
-        <f aca="false">1.5*K14/30</f>
+        <f aca="false">0.5*K14/9</f>
         <v>0</v>
       </c>
     </row>
@@ -13170,9 +13306,12 @@
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
-      <c r="K15" s="23"/>
+      <c r="K15" s="23" t="n">
+        <f aca="false">SUM(B15:J15)</f>
+        <v>0</v>
+      </c>
       <c r="L15" s="12" t="n">
-        <f aca="false">1.5*K15/30</f>
+        <f aca="false">0.5*K15/9</f>
         <v>0</v>
       </c>
     </row>
@@ -13189,9 +13328,12 @@
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
-      <c r="K16" s="23"/>
+      <c r="K16" s="23" t="n">
+        <f aca="false">SUM(B16:J16)</f>
+        <v>0</v>
+      </c>
       <c r="L16" s="12" t="n">
-        <f aca="false">1.5*K16/30</f>
+        <f aca="false">0.5*K16/9</f>
         <v>0</v>
       </c>
     </row>
@@ -13199,38 +13341,78 @@
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="23"/>
+      <c r="B17" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="13" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E17" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" s="23" t="n">
+        <f aca="false">SUM(B17:J17)</f>
+        <v>6.25</v>
+      </c>
       <c r="L17" s="12" t="n">
-        <f aca="false">1.5*K17/30</f>
-        <v>0</v>
+        <f aca="false">0.5*K17/9</f>
+        <v>0.347222222222222</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
+      <c r="B18" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="13" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E18" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G18" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="13" t="n">
+        <v>1</v>
+      </c>
       <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="23"/>
+      <c r="J18" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" s="23" t="n">
+        <f aca="false">SUM(B18:J18)</f>
+        <v>6.25</v>
+      </c>
       <c r="L18" s="12" t="n">
-        <f aca="false">1.5*K18/30</f>
-        <v>0</v>
+        <f aca="false">0.5*K18/9</f>
+        <v>0.347222222222222</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13246,9 +13428,12 @@
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
-      <c r="K19" s="23"/>
+      <c r="K19" s="23" t="n">
+        <f aca="false">SUM(B19:J19)</f>
+        <v>0</v>
+      </c>
       <c r="L19" s="12" t="n">
-        <f aca="false">1.5*K19/30</f>
+        <f aca="false">0.5*K19/9</f>
         <v>0</v>
       </c>
     </row>
@@ -13265,9 +13450,12 @@
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
-      <c r="K20" s="23"/>
+      <c r="K20" s="23" t="n">
+        <f aca="false">SUM(B20:J20)</f>
+        <v>0</v>
+      </c>
       <c r="L20" s="12" t="n">
-        <f aca="false">1.5*K20/30</f>
+        <f aca="false">0.5*K20/9</f>
         <v>0</v>
       </c>
     </row>
@@ -13284,9 +13472,12 @@
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
-      <c r="K21" s="23"/>
+      <c r="K21" s="23" t="n">
+        <f aca="false">SUM(B21:J21)</f>
+        <v>0</v>
+      </c>
       <c r="L21" s="12" t="n">
-        <f aca="false">1.5*K21/30</f>
+        <f aca="false">0.5*K21/9</f>
         <v>0</v>
       </c>
     </row>
@@ -13294,19 +13485,40 @@
       <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="23"/>
+      <c r="B22" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="13" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F22" s="13" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G22" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" s="23" t="n">
+        <f aca="false">SUM(B22:J22)</f>
+        <v>5</v>
+      </c>
       <c r="L22" s="12" t="n">
-        <f aca="false">1.5*K22/30</f>
-        <v>0</v>
+        <f aca="false">0.5*K22/9</f>
+        <v>0.277777777777778</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13322,9 +13534,12 @@
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
-      <c r="K23" s="23"/>
+      <c r="K23" s="23" t="n">
+        <f aca="false">SUM(B23:J23)</f>
+        <v>0</v>
+      </c>
       <c r="L23" s="12" t="n">
-        <f aca="false">1.5*K23/30</f>
+        <f aca="false">0.5*K23/9</f>
         <v>0</v>
       </c>
     </row>
@@ -13339,8 +13554,8 @@
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="14"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="12"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="34" t="s">
@@ -13356,30 +13571,30 @@
         <v>1</v>
       </c>
       <c r="E25" s="18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" s="18" t="n">
         <v>1</v>
       </c>
       <c r="G25" s="18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H25" s="18" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I25" s="18" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J25" s="18" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K25" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" s="30" t="n">
         <f aca="false">SUM(B25:J25)</f>
-        <v>10.5</v>
-      </c>
-      <c r="L25" s="13" t="n">
-        <f aca="false">1.5*K25/30</f>
-        <v>0.525</v>
+        <v>9</v>
+      </c>
+      <c r="L25" s="12" t="n">
+        <f aca="false">0.5*K25/9</f>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -13401,7 +13616,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13447,11 +13662,11 @@
         <v>1.23</v>
       </c>
       <c r="E2" s="18" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="F2" s="30" t="n">
         <f aca="false">SUM(B2:E2)</f>
-        <v>4.55</v>
+        <v>4.66</v>
       </c>
       <c r="G2" s="37"/>
       <c r="H2" s="38"/>
@@ -13470,11 +13685,11 @@
         <v>0.64</v>
       </c>
       <c r="E3" s="32" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="F3" s="23" t="n">
         <f aca="false">SUM(B3:E3)</f>
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="G3" s="38"/>
       <c r="H3" s="38"/>
@@ -13493,11 +13708,11 @@
         <v>1.16</v>
       </c>
       <c r="E4" s="32" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="F4" s="23" t="n">
         <f aca="false">SUM(B4:E4)</f>
-        <v>2.7</v>
+        <v>3.01</v>
       </c>
       <c r="G4" s="39"/>
       <c r="H4" s="40"/>
@@ -13585,11 +13800,11 @@
         <v>1.34</v>
       </c>
       <c r="E8" s="32" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="F8" s="23" t="n">
         <f aca="false">SUM(B8:E8)</f>
-        <v>3.31</v>
+        <v>3.73</v>
       </c>
       <c r="G8" s="39"/>
       <c r="H8" s="38"/>
@@ -13608,11 +13823,11 @@
         <v>1.06</v>
       </c>
       <c r="E9" s="32" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="F9" s="23" t="n">
         <f aca="false">SUM(B9:E9)</f>
-        <v>3.22</v>
+        <v>3.57</v>
       </c>
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
@@ -13631,11 +13846,11 @@
         <v>0.98</v>
       </c>
       <c r="E10" s="32" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="F10" s="23" t="n">
         <f aca="false">SUM(B10:E10)</f>
-        <v>2.54</v>
+        <v>2.85</v>
       </c>
       <c r="G10" s="38"/>
       <c r="H10" s="38"/>
@@ -13654,11 +13869,11 @@
         <v>1.24</v>
       </c>
       <c r="E11" s="32" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="F11" s="23" t="n">
         <f aca="false">SUM(B11:E11)</f>
-        <v>2.71</v>
+        <v>3.06</v>
       </c>
       <c r="G11" s="39"/>
       <c r="H11" s="40"/>
@@ -13792,11 +14007,11 @@
         <v>1.24</v>
       </c>
       <c r="E17" s="32" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="F17" s="23" t="n">
         <f aca="false">SUM(B17:E17)</f>
-        <v>3.33</v>
+        <v>3.68</v>
       </c>
       <c r="G17" s="38"/>
       <c r="H17" s="38"/>
@@ -13815,11 +14030,11 @@
         <v>1.3</v>
       </c>
       <c r="E18" s="32" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="F18" s="23" t="n">
         <f aca="false">SUM(B18:E18)</f>
-        <v>4.37</v>
+        <v>4.72</v>
       </c>
       <c r="G18" s="38"/>
       <c r="H18" s="38"/>
@@ -13907,11 +14122,11 @@
         <v>1.24</v>
       </c>
       <c r="E22" s="32" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="F22" s="23" t="n">
         <f aca="false">SUM(B22:E22)</f>
-        <v>3.43</v>
+        <v>3.71</v>
       </c>
       <c r="G22" s="38"/>
       <c r="H22" s="38"/>
